--- a/dataset_v5.xlsx
+++ b/dataset_v5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\pruebas\DietAsist\cosas para crear dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\DietAsist-Tesis-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7B14E-E492-47AB-86EE-D0DB71CB4F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB669D7-ADAC-4D20-AC4A-4E3DEEAE6664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>1.Para esta receta será necesario contar con el arroz previamente cocido.\n2.Cortar la cebolla junto al tomate y ají en tiras. Por otro lado, cortar el lomo en cuadrados y salpimentar.\n3.Colocar una sartén a fuego alto. Cuando tome temperatura, agregar el aceite, esparcir y añadir la carne.\n4.Dejar cocinar por 1-2 minutos hasta que la carne se haya dorado por un lado. Luego, saltear y añadir la cebolla junto al ají, ajo y vinagre.\n5.Seguir salteado y agregar los tomates junto a la salsa de soya y volver a saltear.\n6.Espolvorear comino, mezclar y rectificar sazón. Apagar.\n7.Si cuenta con perejil o culantro, picar y agregar.\n8.Servir el lomo junto a las papas fritas y arroz cocido.</t>
   </si>
   <si>
-    <t>Alto</t>
-  </si>
-  <si>
     <t>['Arroz/150', 'Papas Fritas/150', 'Lomo/150', 'Tomate/65', 'Cebolla/50', 'Ají amarillo/15', 'Sillao/14', 'Aceite/10', 'Vinagre/5', 'Comino/3', 'Ajo/2']</t>
   </si>
   <si>
@@ -962,6 +959,9 @@
   </si>
   <si>
     <t>[0, 0, 150, 0, 0, 0, 0, 0, 180, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,25 +1408,25 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
       <c r="L2">
         <v>73.289900000000003</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1434,10 +1434,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3">
         <v>506</v>
@@ -1455,25 +1455,25 @@
         <v>9.1</v>
       </c>
       <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
       <c r="L3">
         <v>69.76285</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -1502,25 +1502,25 @@
         <v>26.3</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
       <c r="L4">
         <v>87.5</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5">
         <v>519</v>
@@ -1549,25 +1549,25 @@
         <v>22.5</v>
       </c>
       <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
       </c>
       <c r="L5">
         <v>59.730249999999998</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1575,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="D6">
         <v>471</v>
@@ -1596,25 +1596,25 @@
         <v>16.8</v>
       </c>
       <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
       </c>
       <c r="L6">
         <v>66.454350000000005</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1622,10 +1622,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
       </c>
       <c r="D7">
         <v>398</v>
@@ -1643,25 +1643,25 @@
         <v>19.2</v>
       </c>
       <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
       </c>
       <c r="L7">
         <v>89.195980000000006</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1669,10 +1669,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
       </c>
       <c r="D8">
         <v>251</v>
@@ -1690,25 +1690,25 @@
         <v>11.2</v>
       </c>
       <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
       </c>
       <c r="L8">
         <v>79.681269999999998</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1716,10 +1716,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
       </c>
       <c r="D9">
         <v>439</v>
@@ -1737,25 +1737,25 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
       </c>
       <c r="L9">
         <v>75.170839999999998</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1763,10 +1763,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
       </c>
       <c r="D10">
         <v>459</v>
@@ -1784,25 +1784,25 @@
         <v>5.4</v>
       </c>
       <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
       </c>
       <c r="L10">
         <v>60.566450000000003</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
       </c>
       <c r="D11">
         <v>556</v>
@@ -1831,25 +1831,25 @@
         <v>14.4</v>
       </c>
       <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
         <v>73</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
       </c>
       <c r="L11">
         <v>89.928060000000002</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O11" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1857,10 +1857,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
       </c>
       <c r="D12">
         <v>460</v>
@@ -1878,25 +1878,25 @@
         <v>23.6</v>
       </c>
       <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>81</v>
       </c>
       <c r="L12">
         <v>82.608699999999999</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1904,10 +1904,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
       </c>
       <c r="D13">
         <v>237</v>
@@ -1925,25 +1925,25 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
         <v>85</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>86</v>
-      </c>
-      <c r="K13" t="s">
-        <v>87</v>
       </c>
       <c r="L13">
         <v>64.556960000000004</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1951,10 +1951,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
       </c>
       <c r="D14">
         <v>397</v>
@@ -1972,25 +1972,25 @@
         <v>18.8</v>
       </c>
       <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
         <v>91</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" t="s">
-        <v>93</v>
       </c>
       <c r="L14">
         <v>50.377830000000003</v>
       </c>
       <c r="M14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1998,10 +1998,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
         <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
       </c>
       <c r="D15">
         <v>319</v>
@@ -2019,25 +2019,25 @@
         <v>11.2</v>
       </c>
       <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
       </c>
       <c r="L15">
         <v>95.611289999999997</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O15" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
       </c>
       <c r="D16">
         <v>444</v>
@@ -2066,25 +2066,25 @@
         <v>16.2</v>
       </c>
       <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s">
         <v>103</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
       </c>
       <c r="L16">
         <v>56.306310000000003</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2092,10 +2092,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
         <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
       </c>
       <c r="D17">
         <v>563</v>
@@ -2113,25 +2113,25 @@
         <v>24.2</v>
       </c>
       <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
         <v>109</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
       </c>
       <c r="L17">
         <v>39.431620000000002</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2139,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
         <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
       </c>
       <c r="D18">
         <v>503</v>
@@ -2160,25 +2160,25 @@
         <v>14.4</v>
       </c>
       <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
         <v>115</v>
       </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18">
         <v>70.178929999999994</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2186,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
         <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
       </c>
       <c r="D19">
         <v>460</v>
@@ -2207,25 +2207,25 @@
         <v>11.9</v>
       </c>
       <c r="I19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" t="s">
         <v>119</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" t="s">
-        <v>121</v>
       </c>
       <c r="L19">
         <v>39.130429999999997</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N19" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
       </c>
       <c r="D20">
         <v>543</v>
@@ -2254,25 +2254,25 @@
         <v>35.1</v>
       </c>
       <c r="I20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" t="s">
         <v>125</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" t="s">
-        <v>127</v>
       </c>
       <c r="L20">
         <v>42.35727</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O20" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2280,10 +2280,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
         <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
       </c>
       <c r="D21">
         <v>415</v>
@@ -2301,25 +2301,25 @@
         <v>38.799999999999997</v>
       </c>
       <c r="I21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" t="s">
         <v>131</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
       </c>
       <c r="L21">
         <v>55.421689999999998</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N21" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O21" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2327,10 +2327,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
       </c>
       <c r="D22">
         <v>481</v>
@@ -2348,25 +2348,25 @@
         <v>29.3</v>
       </c>
       <c r="I22" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" t="s">
         <v>137</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>138</v>
-      </c>
-      <c r="K22" t="s">
-        <v>139</v>
       </c>
       <c r="L22">
         <v>25.571729999999999</v>
       </c>
       <c r="M22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O22" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2374,10 +2374,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
         <v>141</v>
-      </c>
-      <c r="C23" t="s">
-        <v>142</v>
       </c>
       <c r="D23">
         <v>396</v>
@@ -2395,25 +2395,25 @@
         <v>26</v>
       </c>
       <c r="I23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" t="s">
         <v>143</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>144</v>
-      </c>
-      <c r="K23" t="s">
-        <v>145</v>
       </c>
       <c r="L23">
         <v>60.606059999999999</v>
       </c>
       <c r="M23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O23" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2421,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
         <v>147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>148</v>
       </c>
       <c r="D24">
         <v>390</v>
@@ -2442,25 +2442,25 @@
         <v>28.9</v>
       </c>
       <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
         <v>149</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" t="s">
-        <v>151</v>
       </c>
       <c r="L24">
         <v>84.615380000000002</v>
       </c>
       <c r="M24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N24" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O24" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2468,10 +2468,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
         <v>153</v>
-      </c>
-      <c r="C25" t="s">
-        <v>154</v>
       </c>
       <c r="D25">
         <v>695</v>
@@ -2489,25 +2489,25 @@
         <v>65</v>
       </c>
       <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
         <v>155</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" t="s">
-        <v>157</v>
       </c>
       <c r="L25">
         <v>83.453239999999994</v>
       </c>
       <c r="M25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O25" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2515,10 +2515,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
         <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
       </c>
       <c r="D26">
         <v>557</v>
@@ -2536,25 +2536,25 @@
         <v>47.3</v>
       </c>
       <c r="I26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" t="s">
         <v>161</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>162</v>
-      </c>
-      <c r="K26" t="s">
-        <v>163</v>
       </c>
       <c r="L26">
         <v>46.678640000000001</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N26" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O26" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2562,10 +2562,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
         <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>166</v>
       </c>
       <c r="D27">
         <v>720</v>
@@ -2583,25 +2583,25 @@
         <v>12.4</v>
       </c>
       <c r="I27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" t="s">
         <v>167</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>168</v>
-      </c>
-      <c r="K27" t="s">
-        <v>169</v>
       </c>
       <c r="L27">
         <v>45.833329999999997</v>
       </c>
       <c r="M27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2609,10 +2609,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" t="s">
         <v>171</v>
-      </c>
-      <c r="C28" t="s">
-        <v>172</v>
       </c>
       <c r="D28">
         <v>1009</v>
@@ -2630,25 +2630,25 @@
         <v>23.3</v>
       </c>
       <c r="I28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" t="s">
         <v>173</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" t="s">
-        <v>175</v>
       </c>
       <c r="L28">
         <v>57.581760000000003</v>
       </c>
       <c r="M28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2656,10 +2656,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
         <v>177</v>
-      </c>
-      <c r="C29" t="s">
-        <v>178</v>
       </c>
       <c r="D29">
         <v>751</v>
@@ -2677,25 +2677,25 @@
         <v>27.6</v>
       </c>
       <c r="I29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" t="s">
         <v>179</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>180</v>
-      </c>
-      <c r="K29" t="s">
-        <v>181</v>
       </c>
       <c r="L29">
         <v>35.952060000000003</v>
       </c>
       <c r="M29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2703,10 +2703,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
         <v>183</v>
-      </c>
-      <c r="C30" t="s">
-        <v>184</v>
       </c>
       <c r="D30">
         <v>557</v>
@@ -2724,25 +2724,25 @@
         <v>27.8</v>
       </c>
       <c r="I30" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" t="s">
         <v>185</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>186</v>
-      </c>
-      <c r="K30" t="s">
-        <v>187</v>
       </c>
       <c r="L30">
         <v>32.315980000000003</v>
       </c>
       <c r="M30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2750,10 +2750,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s">
         <v>189</v>
-      </c>
-      <c r="C31" t="s">
-        <v>190</v>
       </c>
       <c r="D31">
         <v>731</v>
@@ -2771,25 +2771,25 @@
         <v>16.8</v>
       </c>
       <c r="I31" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" t="s">
         <v>191</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>192</v>
-      </c>
-      <c r="K31" t="s">
-        <v>193</v>
       </c>
       <c r="L31">
         <v>53.351570000000002</v>
       </c>
       <c r="M31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2797,10 +2797,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s">
         <v>195</v>
-      </c>
-      <c r="C32" t="s">
-        <v>196</v>
       </c>
       <c r="D32">
         <v>871</v>
@@ -2818,25 +2818,25 @@
         <v>29.6</v>
       </c>
       <c r="I32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" t="s">
         <v>197</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>198</v>
-      </c>
-      <c r="K32" t="s">
-        <v>199</v>
       </c>
       <c r="L32">
         <v>60.849600000000002</v>
       </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N32" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2844,10 +2844,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" t="s">
         <v>201</v>
-      </c>
-      <c r="C33" t="s">
-        <v>202</v>
       </c>
       <c r="D33">
         <v>603</v>
@@ -2865,25 +2865,25 @@
         <v>10.6</v>
       </c>
       <c r="I33" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" t="s">
         <v>203</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>204</v>
-      </c>
-      <c r="K33" t="s">
-        <v>205</v>
       </c>
       <c r="L33">
         <v>56.384740000000001</v>
       </c>
       <c r="M33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
         <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>208</v>
       </c>
       <c r="D34">
         <v>588</v>
@@ -2912,25 +2912,25 @@
         <v>33.9</v>
       </c>
       <c r="I34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" t="s">
         <v>209</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>210</v>
-      </c>
-      <c r="K34" t="s">
-        <v>211</v>
       </c>
       <c r="L34">
         <v>76.530609999999996</v>
       </c>
       <c r="M34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N34" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" t="s">
         <v>213</v>
-      </c>
-      <c r="C35" t="s">
-        <v>214</v>
       </c>
       <c r="D35">
         <v>397</v>
@@ -2959,25 +2959,25 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" t="s">
         <v>215</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>216</v>
-      </c>
-      <c r="K35" t="s">
-        <v>217</v>
       </c>
       <c r="L35">
         <v>36.52393</v>
       </c>
       <c r="M35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N35" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2985,10 +2985,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" t="s">
         <v>219</v>
-      </c>
-      <c r="C36" t="s">
-        <v>220</v>
       </c>
       <c r="D36">
         <v>599</v>
@@ -3006,25 +3006,25 @@
         <v>30.6</v>
       </c>
       <c r="I36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
         <v>221</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>222</v>
-      </c>
-      <c r="K36" t="s">
-        <v>223</v>
       </c>
       <c r="L36">
         <v>51.419029999999999</v>
       </c>
       <c r="M36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3032,10 +3032,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
         <v>225</v>
-      </c>
-      <c r="C37" t="s">
-        <v>226</v>
       </c>
       <c r="D37">
         <v>517</v>
@@ -3053,25 +3053,25 @@
         <v>13.2</v>
       </c>
       <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" t="s">
         <v>227</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>228</v>
-      </c>
-      <c r="K37" t="s">
-        <v>229</v>
       </c>
       <c r="L37">
         <v>54.158610000000003</v>
       </c>
       <c r="M37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3079,10 +3079,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" t="s">
         <v>231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>232</v>
       </c>
       <c r="D38">
         <v>333</v>
@@ -3100,25 +3100,25 @@
         <v>30.6</v>
       </c>
       <c r="I38" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" t="s">
         <v>233</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>234</v>
-      </c>
-      <c r="K38" t="s">
-        <v>235</v>
       </c>
       <c r="L38">
         <v>76.576580000000007</v>
       </c>
       <c r="M38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N38" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3126,10 +3126,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
         <v>237</v>
-      </c>
-      <c r="C39" t="s">
-        <v>238</v>
       </c>
       <c r="D39">
         <v>643</v>
@@ -3147,25 +3147,25 @@
         <v>24.8</v>
       </c>
       <c r="I39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" t="s">
         <v>239</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>240</v>
-      </c>
-      <c r="K39" t="s">
-        <v>241</v>
       </c>
       <c r="L39">
         <v>61.119750000000003</v>
       </c>
       <c r="M39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N39" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3173,10 +3173,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" t="s">
         <v>243</v>
-      </c>
-      <c r="C40" t="s">
-        <v>244</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -3194,25 +3194,25 @@
         <v>21.9</v>
       </c>
       <c r="I40" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" t="s">
         <v>245</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>246</v>
-      </c>
-      <c r="K40" t="s">
-        <v>247</v>
       </c>
       <c r="L40">
         <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O40" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3220,10 +3220,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
         <v>249</v>
-      </c>
-      <c r="C41" t="s">
-        <v>250</v>
       </c>
       <c r="D41">
         <v>367</v>
@@ -3241,25 +3241,25 @@
         <v>19.3</v>
       </c>
       <c r="I41" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" t="s">
         <v>251</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>252</v>
-      </c>
-      <c r="K41" t="s">
-        <v>253</v>
       </c>
       <c r="L41">
         <v>49.046320000000001</v>
       </c>
       <c r="M41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N41" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3267,10 +3267,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" t="s">
         <v>255</v>
-      </c>
-      <c r="C42" t="s">
-        <v>256</v>
       </c>
       <c r="D42">
         <v>395</v>
@@ -3288,25 +3288,25 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" t="s">
         <v>257</v>
       </c>
-      <c r="J42" t="s">
-        <v>258</v>
-      </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42">
         <v>45.56962</v>
       </c>
       <c r="M42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3314,10 +3314,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
         <v>260</v>
-      </c>
-      <c r="C43" t="s">
-        <v>261</v>
       </c>
       <c r="D43">
         <v>582</v>
@@ -3335,25 +3335,25 @@
         <v>39.200000000000003</v>
       </c>
       <c r="I43" t="s">
+        <v>261</v>
+      </c>
+      <c r="J43" t="s">
         <v>262</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>263</v>
-      </c>
-      <c r="K43" t="s">
-        <v>264</v>
       </c>
       <c r="L43">
         <v>61.512030000000003</v>
       </c>
       <c r="M43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N43" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3361,10 +3361,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" t="s">
         <v>266</v>
-      </c>
-      <c r="C44" t="s">
-        <v>267</v>
       </c>
       <c r="D44">
         <v>631</v>
@@ -3382,25 +3382,25 @@
         <v>9.4</v>
       </c>
       <c r="I44" t="s">
+        <v>267</v>
+      </c>
+      <c r="J44" t="s">
         <v>268</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>269</v>
-      </c>
-      <c r="K44" t="s">
-        <v>270</v>
       </c>
       <c r="L44">
         <v>35.340730000000001</v>
       </c>
       <c r="M44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3408,10 +3408,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" t="s">
         <v>272</v>
-      </c>
-      <c r="C45" t="s">
-        <v>273</v>
       </c>
       <c r="D45">
         <v>391</v>
@@ -3429,25 +3429,25 @@
         <v>15.1</v>
       </c>
       <c r="I45" t="s">
+        <v>273</v>
+      </c>
+      <c r="J45" t="s">
         <v>274</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>275</v>
-      </c>
-      <c r="K45" t="s">
-        <v>276</v>
       </c>
       <c r="L45">
         <v>76.726339999999993</v>
       </c>
       <c r="M45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3455,10 +3455,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" t="s">
         <v>278</v>
-      </c>
-      <c r="C46" t="s">
-        <v>279</v>
       </c>
       <c r="D46">
         <v>448</v>
@@ -3476,25 +3476,25 @@
         <v>14.4</v>
       </c>
       <c r="I46" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" t="s">
         <v>280</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>281</v>
-      </c>
-      <c r="K46" t="s">
-        <v>282</v>
       </c>
       <c r="L46">
         <v>63.616070000000001</v>
       </c>
       <c r="M46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N46" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3502,10 +3502,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" t="s">
         <v>284</v>
-      </c>
-      <c r="C47" t="s">
-        <v>285</v>
       </c>
       <c r="D47">
         <v>601</v>
@@ -3523,25 +3523,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="I47" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47" t="s">
         <v>286</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>287</v>
-      </c>
-      <c r="K47" t="s">
-        <v>288</v>
       </c>
       <c r="L47">
         <v>63.22795</v>
       </c>
       <c r="M47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3549,10 +3549,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" t="s">
         <v>290</v>
-      </c>
-      <c r="C48" t="s">
-        <v>291</v>
       </c>
       <c r="D48">
         <v>447</v>
@@ -3570,25 +3570,25 @@
         <v>17</v>
       </c>
       <c r="I48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J48" t="s">
         <v>292</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>293</v>
-      </c>
-      <c r="K48" t="s">
-        <v>294</v>
       </c>
       <c r="L48">
         <v>49.216999999999999</v>
       </c>
       <c r="M48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3596,10 +3596,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C49" t="s">
         <v>296</v>
-      </c>
-      <c r="C49" t="s">
-        <v>297</v>
       </c>
       <c r="D49">
         <v>560</v>
@@ -3617,25 +3617,25 @@
         <v>19.5</v>
       </c>
       <c r="I49" t="s">
+        <v>297</v>
+      </c>
+      <c r="J49" t="s">
         <v>298</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>299</v>
-      </c>
-      <c r="K49" t="s">
-        <v>300</v>
       </c>
       <c r="L49">
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3643,10 +3643,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" t="s">
         <v>302</v>
-      </c>
-      <c r="C50" t="s">
-        <v>303</v>
       </c>
       <c r="D50">
         <v>738</v>
@@ -3664,25 +3664,25 @@
         <v>34.6</v>
       </c>
       <c r="I50" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" t="s">
         <v>304</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>305</v>
-      </c>
-      <c r="K50" t="s">
-        <v>306</v>
       </c>
       <c r="L50">
         <v>71.815719999999999</v>
       </c>
       <c r="M50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3690,10 +3690,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C51" t="s">
         <v>308</v>
-      </c>
-      <c r="C51" t="s">
-        <v>309</v>
       </c>
       <c r="D51">
         <v>595</v>
@@ -3711,25 +3711,25 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J51" t="s">
         <v>310</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>311</v>
-      </c>
-      <c r="K51" t="s">
-        <v>312</v>
       </c>
       <c r="L51">
         <v>55.462179999999996</v>
       </c>
       <c r="M51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_v5.xlsx
+++ b/dataset_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\DietAsist-Tesis-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB669D7-ADAC-4D20-AC4A-4E3DEEAE6664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A6FFA-1869-43BE-AB65-EAF4972474AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
